--- a/spec/ASW/Veh/Driver/CoPT/CoPT_TrqDesCoord/CoPT_TrqDesCoord.xlsx
+++ b/spec/ASW/Veh/Driver/CoPT/CoPT_TrqDesCoord/CoPT_TrqDesCoord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\CoPT\CoPT_TrqDesCoord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B4D4E1-D81F-412D-87CB-B71F27D2D28D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -71,6 +71,130 @@
   <si>
     <t>InitialValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VehMot_trqPrtDfftl</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>Differential protection torque</t>
+  </si>
+  <si>
+    <t>CoVeh_trqDes</t>
+  </si>
+  <si>
+    <t>Setpoint torque order to the drive train (gearbox output torque)</t>
+  </si>
+  <si>
+    <t>PT_rTrq</t>
+  </si>
+  <si>
+    <t>Powertrain torque ratio</t>
+  </si>
+  <si>
+    <t>PT_trqLos</t>
+  </si>
+  <si>
+    <t>Parameter for loss torque of the drive train</t>
+  </si>
+  <si>
+    <t>Tra_trqDesMin</t>
+  </si>
+  <si>
+    <t>Increment torque demand from gearbox</t>
+  </si>
+  <si>
+    <t>Tra_trqDesMax</t>
+  </si>
+  <si>
+    <t>Decrement torque demand from gearbox</t>
+  </si>
+  <si>
+    <t>PT_trqTraPrt</t>
+  </si>
+  <si>
+    <t>Maximum allowed inner torque</t>
+  </si>
+  <si>
+    <t>CoPT_trqDesClth</t>
+  </si>
+  <si>
+    <t>Desired Clutch Torque</t>
+  </si>
+  <si>
+    <t>CoPT_trqDes</t>
+  </si>
+  <si>
+    <t>Total torque order for torque actuator (clutch torque)</t>
+  </si>
+  <si>
+    <t>PT_stTraIntv</t>
+  </si>
+  <si>
+    <t>Status of torque access gearbox interventions</t>
+  </si>
+  <si>
+    <t>CoPT_trqPTPrt</t>
+  </si>
+  <si>
+    <t>Drive train protection torque (clutch torque)</t>
+  </si>
+  <si>
+    <t>CoPT_trqDesDecMin_mp</t>
+  </si>
+  <si>
+    <t>Torque request after decreasing transmission intervention</t>
+  </si>
+  <si>
+    <t>CoPT_trqDesIncMax_mp</t>
+  </si>
+  <si>
+    <t>Torque request after increasing transmission intervention</t>
+  </si>
+  <si>
+    <t>PTPRTOVRDSSPDGOV_SY</t>
+  </si>
+  <si>
+    <t>powertrain protection overrides speed control</t>
+  </si>
+  <si>
+    <t>PTPRT_OVRDS_SPDGOV</t>
+  </si>
+  <si>
+    <t>DFFTLPRTOVRDSTSCINC_SY</t>
+  </si>
+  <si>
+    <t>powertrain protection overrides TSC</t>
+  </si>
+  <si>
+    <t>DFFTLPRT_OVRDS_TSCINC</t>
+  </si>
+  <si>
+    <t>DCSOVRDSENGPRT_SY</t>
+  </si>
+  <si>
+    <t>Drag control system overrides engine protection</t>
+  </si>
+  <si>
+    <t>DCS_OVRDS_ENGPRT</t>
+  </si>
+  <si>
+    <t>Torq</t>
+  </si>
+  <si>
+    <t>State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>Ratio_100</t>
   </si>
 </sst>
 </file>
@@ -458,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +625,185 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C4" s="5">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +857,107 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>255</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -604,6 +1008,58 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -726,15 +1182,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" customWidth="1"/>
@@ -759,6 +1215,90 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
